--- a/dataset/4-16/statics.xlsx
+++ b/dataset/4-16/statics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="514" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="263" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="statics" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>100M</t>
+  </si>
+  <si>
+    <t>10M</t>
   </si>
   <si>
     <t>unit</t>
@@ -250,8 +253,8 @@
   </sheetPr>
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="M1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="R1" activeCellId="0" pane="topLeft" sqref="R1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="M1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="R5" activeCellId="0" pane="topLeft" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -446,69 +449,69 @@
       <c r="Q4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R4" s="0" t="n">
-        <v>0</v>
+      <c r="R4" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3" t="n">
         <f aca="false">AVERAGE(off!A2:A13)</f>
@@ -581,7 +584,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="3" t="n">
         <f aca="false">AVERAGE(on!A2:A12)</f>
@@ -654,7 +657,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="4" t="n">
         <f aca="false">B7/B6-1</f>
@@ -848,7 +851,7 @@
         <v>20</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="n">
         <v>1346</v>
@@ -1410,7 +1413,7 @@
   </sheetPr>
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="K1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="K1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="Q1" activeCellId="0" pane="topLeft" sqref="Q1"/>
     </sheetView>
   </sheetViews>
@@ -1505,7 +1508,7 @@
         <v>20</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="n">
         <v>1344</v>
